--- a/data_2tier.xlsx
+++ b/data_2tier.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="A&amp;B Teams" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1411,507 +1408,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="raw"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="84">
-          <cell r="A84">
-            <v>42401</v>
-          </cell>
-          <cell r="B84">
-            <v>5</v>
-          </cell>
-          <cell r="C84">
-            <v>6</v>
-          </cell>
-          <cell r="D84">
-            <v>4</v>
-          </cell>
-          <cell r="E84">
-            <v>1</v>
-          </cell>
-          <cell r="G84">
-            <v>2</v>
-          </cell>
-          <cell r="I84">
-            <v>7</v>
-          </cell>
-          <cell r="J84">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>42402</v>
-          </cell>
-          <cell r="B85">
-            <v>6</v>
-          </cell>
-          <cell r="C85">
-            <v>3</v>
-          </cell>
-          <cell r="F85">
-            <v>2</v>
-          </cell>
-          <cell r="H85">
-            <v>1</v>
-          </cell>
-          <cell r="I85">
-            <v>7</v>
-          </cell>
-          <cell r="J85">
-            <v>4</v>
-          </cell>
-          <cell r="L85">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>42403</v>
-          </cell>
-          <cell r="B86">
-            <v>1</v>
-          </cell>
-          <cell r="C86">
-            <v>2</v>
-          </cell>
-          <cell r="F86">
-            <v>3</v>
-          </cell>
-          <cell r="G86">
-            <v>6</v>
-          </cell>
-          <cell r="H86">
-            <v>7</v>
-          </cell>
-          <cell r="I86">
-            <v>5</v>
-          </cell>
-          <cell r="J86">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>42404</v>
-          </cell>
-          <cell r="B87">
-            <v>2</v>
-          </cell>
-          <cell r="F87">
-            <v>1</v>
-          </cell>
-          <cell r="G87">
-            <v>7</v>
-          </cell>
-          <cell r="H87">
-            <v>5</v>
-          </cell>
-          <cell r="I87">
-            <v>6</v>
-          </cell>
-          <cell r="J87">
-            <v>3</v>
-          </cell>
-          <cell r="L87">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>42405</v>
-          </cell>
-          <cell r="B88">
-            <v>4</v>
-          </cell>
-          <cell r="G88">
-            <v>6</v>
-          </cell>
-          <cell r="H88">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>42408</v>
-          </cell>
-          <cell r="B89">
-            <v>5</v>
-          </cell>
-          <cell r="C89">
-            <v>4</v>
-          </cell>
-          <cell r="E89">
-            <v>6</v>
-          </cell>
-          <cell r="F89">
-            <v>1</v>
-          </cell>
-          <cell r="G89">
-            <v>7</v>
-          </cell>
-          <cell r="H89">
-            <v>3</v>
-          </cell>
-          <cell r="L89">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>42409</v>
-          </cell>
-          <cell r="B90">
-            <v>6</v>
-          </cell>
-          <cell r="C90">
-            <v>3</v>
-          </cell>
-          <cell r="D90">
-            <v>7</v>
-          </cell>
-          <cell r="F90">
-            <v>4</v>
-          </cell>
-          <cell r="H90">
-            <v>1</v>
-          </cell>
-          <cell r="I90">
-            <v>5</v>
-          </cell>
-          <cell r="L90">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>42410</v>
-          </cell>
-          <cell r="B91">
-            <v>2</v>
-          </cell>
-          <cell r="D91">
-            <v>1</v>
-          </cell>
-          <cell r="E91">
-            <v>4</v>
-          </cell>
-          <cell r="G91">
-            <v>5</v>
-          </cell>
-          <cell r="I91">
-            <v>3</v>
-          </cell>
-          <cell r="L91">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>42411</v>
-          </cell>
-          <cell r="B92">
-            <v>1</v>
-          </cell>
-          <cell r="C92">
-            <v>6</v>
-          </cell>
-          <cell r="E92">
-            <v>5</v>
-          </cell>
-          <cell r="I92">
-            <v>3</v>
-          </cell>
-          <cell r="L92">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>42412</v>
-          </cell>
-          <cell r="B93">
-            <v>2</v>
-          </cell>
-          <cell r="C93">
-            <v>7</v>
-          </cell>
-          <cell r="D93">
-            <v>6</v>
-          </cell>
-          <cell r="F93">
-            <v>5</v>
-          </cell>
-          <cell r="G93">
-            <v>3</v>
-          </cell>
-          <cell r="H93">
-            <v>2</v>
-          </cell>
-          <cell r="I93">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>42416</v>
-          </cell>
-          <cell r="B94">
-            <v>7</v>
-          </cell>
-          <cell r="C94">
-            <v>4</v>
-          </cell>
-          <cell r="F94">
-            <v>3</v>
-          </cell>
-          <cell r="G94">
-            <v>5</v>
-          </cell>
-          <cell r="H94">
-            <v>1</v>
-          </cell>
-          <cell r="I94">
-            <v>6</v>
-          </cell>
-          <cell r="J94">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>42417</v>
-          </cell>
-          <cell r="B95">
-            <v>7</v>
-          </cell>
-          <cell r="C95">
-            <v>2</v>
-          </cell>
-          <cell r="D95">
-            <v>3</v>
-          </cell>
-          <cell r="E95">
-            <v>5</v>
-          </cell>
-          <cell r="G95">
-            <v>4</v>
-          </cell>
-          <cell r="H95">
-            <v>6</v>
-          </cell>
-          <cell r="L95">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>42418</v>
-          </cell>
-          <cell r="B96">
-            <v>4</v>
-          </cell>
-          <cell r="E96">
-            <v>3</v>
-          </cell>
-          <cell r="F96">
-            <v>2</v>
-          </cell>
-          <cell r="G96">
-            <v>5</v>
-          </cell>
-          <cell r="H96">
-            <v>1</v>
-          </cell>
-          <cell r="I96">
-            <v>6</v>
-          </cell>
-          <cell r="J96">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>42419</v>
-          </cell>
-          <cell r="B97">
-            <v>1</v>
-          </cell>
-          <cell r="D97">
-            <v>3</v>
-          </cell>
-          <cell r="G97">
-            <v>2</v>
-          </cell>
-          <cell r="H97">
-            <v>4</v>
-          </cell>
-          <cell r="I97">
-            <v>6</v>
-          </cell>
-          <cell r="J97">
-            <v>7</v>
-          </cell>
-          <cell r="L97">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>42422</v>
-          </cell>
-          <cell r="B98">
-            <v>2</v>
-          </cell>
-          <cell r="C98">
-            <v>6</v>
-          </cell>
-          <cell r="E98">
-            <v>3</v>
-          </cell>
-          <cell r="F98">
-            <v>5</v>
-          </cell>
-          <cell r="H98">
-            <v>7</v>
-          </cell>
-          <cell r="I98">
-            <v>4</v>
-          </cell>
-          <cell r="J98">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>42423</v>
-          </cell>
-          <cell r="B99">
-            <v>1</v>
-          </cell>
-          <cell r="C99">
-            <v>6</v>
-          </cell>
-          <cell r="J99">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>42424</v>
-          </cell>
-          <cell r="B100">
-            <v>5</v>
-          </cell>
-          <cell r="C100">
-            <v>6</v>
-          </cell>
-          <cell r="F100">
-            <v>4</v>
-          </cell>
-          <cell r="G100">
-            <v>7</v>
-          </cell>
-          <cell r="H100">
-            <v>1</v>
-          </cell>
-          <cell r="J100">
-            <v>2</v>
-          </cell>
-          <cell r="L100">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>42425</v>
-          </cell>
-          <cell r="C101">
-            <v>3</v>
-          </cell>
-          <cell r="E101">
-            <v>1</v>
-          </cell>
-          <cell r="F101">
-            <v>4</v>
-          </cell>
-          <cell r="G101">
-            <v>6</v>
-          </cell>
-          <cell r="H101">
-            <v>2</v>
-          </cell>
-          <cell r="J101">
-            <v>5</v>
-          </cell>
-          <cell r="L101">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>42426</v>
-          </cell>
-          <cell r="B102">
-            <v>1</v>
-          </cell>
-          <cell r="C102">
-            <v>5</v>
-          </cell>
-          <cell r="E102">
-            <v>2</v>
-          </cell>
-          <cell r="G102">
-            <v>7</v>
-          </cell>
-          <cell r="H102">
-            <v>3</v>
-          </cell>
-          <cell r="J102">
-            <v>6</v>
-          </cell>
-          <cell r="L102">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>42429</v>
-          </cell>
-          <cell r="B103">
-            <v>2</v>
-          </cell>
-          <cell r="D103">
-            <v>7</v>
-          </cell>
-          <cell r="E103">
-            <v>4</v>
-          </cell>
-          <cell r="G103">
-            <v>6</v>
-          </cell>
-          <cell r="H103">
-            <v>3</v>
-          </cell>
-          <cell r="J103">
-            <v>5</v>
-          </cell>
-          <cell r="L103">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2214,7 +1710,7 @@
   <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
